--- a/data/unchecked/manual_collect/china/fujian/fujianCaseStatistics_20200401.xlsx
+++ b/data/unchecked/manual_collect/china/fujian/fujianCaseStatistics_20200401.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xenosaga\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xenosaga\Desktop\ncov\COVID-19\data\unchecked\manual_collect\china\fujian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32CBD32-83EC-469A-9346-69FB54E1DA62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A6EE0C2-C567-4995-B879-C2299A047936}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10844,7 +10844,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N80" sqref="N80"/>
+      <selection pane="bottomLeft" activeCell="K77" sqref="K77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="15" customHeight="1"/>
@@ -17202,7 +17202,9 @@
       <c r="J77" s="19">
         <v>2</v>
       </c>
-      <c r="K77" s="19"/>
+      <c r="K77" s="19">
+        <v>2</v>
+      </c>
       <c r="L77" s="19"/>
       <c r="M77" s="15"/>
       <c r="N77" s="19">
